--- a/dataset_metadata/selected_datasets_summary.xlsx
+++ b/dataset_metadata/selected_datasets_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Has Raw Counts</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Size (GB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,6 +477,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>0.03218394331634045</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +498,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>0.1295093791559339</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +519,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>0.4389201765879989</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,6 +540,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>0.04276550840586424</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -544,6 +561,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>0.467359134927392</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -562,6 +582,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>0.03640089742839336</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -580,6 +603,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E8" t="n">
+        <v>0.03129316493868828</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -598,6 +624,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>0.2880413746461272</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -616,419 +645,428 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="E10" t="n">
+        <v>1.358732905238867</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GasperiniShendure2019_atscale.h5ad</t>
+          <t>GehringPachter2019.h5ad</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13135</v>
+        <v>13256</v>
       </c>
       <c r="C11" t="n">
-        <v>207324</v>
+        <v>20382</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2302604019641876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GasperiniShendure2019_highMOI.h5ad</t>
+          <t>McFarlandTsherniak2020.h5ad</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>32738</v>
       </c>
       <c r="C12" t="n">
-        <v>47650</v>
+        <v>182875</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.359182251617312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GasperiniShendure2019_lowMOI.h5ad</t>
+          <t>NormanWeissman2019_filtered.h5ad</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32738</v>
+        <v>33694</v>
       </c>
       <c r="C13" t="n">
-        <v>41284</v>
+        <v>111445</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6506966417655349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GehringPachter2019.h5ad</t>
+          <t>PapalexiSatija2021_eccite_RNA.h5ad</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13256</v>
+        <v>18649</v>
       </c>
       <c r="C14" t="n">
-        <v>20382</v>
+        <v>20729</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1371049117296934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>McFarlandTsherniak2020.h5ad</t>
+          <t>PapalexiSatija2021_eccite_arrayed_RNA.h5ad</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32738</v>
+        <v>16826</v>
       </c>
       <c r="C15" t="n">
-        <v>182875</v>
+        <v>8984</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0487448601052165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NormanWeissman2019_filtered.h5ad</t>
+          <t>ReplogleWeissman2022_K562_essential.h5ad</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33694</v>
+        <v>8563</v>
       </c>
       <c r="C16" t="n">
-        <v>111445</v>
+        <v>310385</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.440504263155162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PapalexiSatija2021_eccite_RNA.h5ad</t>
+          <t>ReplogleWeissman2022_K562_gwps.h5ad</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18649</v>
+        <v>8248</v>
       </c>
       <c r="C17" t="n">
-        <v>20729</v>
+        <v>1989578</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8.200729409232736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PapalexiSatija2021_eccite_arrayed_RNA.h5ad</t>
+          <t>ReplogleWeissman2022_rpe1.h5ad</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16826</v>
+        <v>8749</v>
       </c>
       <c r="C18" t="n">
-        <v>8984</v>
+        <v>247914</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.151940692216158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ReplogleWeissman2022_K562_essential.h5ad</t>
+          <t>SchiebingerLander2019_GSE106340.h5ad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8563</v>
+        <v>27998</v>
       </c>
       <c r="C19" t="n">
-        <v>310385</v>
+        <v>68339</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3528396841138601</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ReplogleWeissman2022_K562_gwps.h5ad</t>
+          <t>SchiebingerLander2019_GSE115943.h5ad</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8248</v>
+        <v>27998</v>
       </c>
       <c r="C20" t="n">
-        <v>1989578</v>
+        <v>259155</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1.528259848244488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ReplogleWeissman2022_rpe1.h5ad</t>
+          <t>ShifrutMarson2018.h5ad</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8749</v>
+        <v>33694</v>
       </c>
       <c r="C21" t="n">
-        <v>247914</v>
+        <v>52236</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2364100981503725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SchiebingerLander2019_GSE106340.h5ad</t>
+          <t>SrivatsanTrapnell2020_sciplex2.h5ad</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27998</v>
+        <v>58347</v>
       </c>
       <c r="C22" t="n">
-        <v>68339</v>
+        <v>24262</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1352080181241035</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SchiebingerLander2019_GSE115943.h5ad</t>
+          <t>SrivatsanTrapnell2020_sciplex4.h5ad</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27998</v>
+        <v>58347</v>
       </c>
       <c r="C23" t="n">
-        <v>259155</v>
+        <v>98437</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2359374845400453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ShifrutMarson2018.h5ad</t>
+          <t>TianKampmann2019_day7neuron.h5ad</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33694</v>
+        <v>33752</v>
       </c>
       <c r="C24" t="n">
-        <v>52236</v>
+        <v>182790</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2504526963457465</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SrivatsanTrapnell2020_sciplex2.h5ad</t>
+          <t>TianKampmann2019_iPSC.h5ad</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58347</v>
+        <v>33752</v>
       </c>
       <c r="C25" t="n">
-        <v>24262</v>
+        <v>275708</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3267531180754304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SrivatsanTrapnell2020_sciplex4.h5ad</t>
+          <t>TianKampmann2021_CRISPRa.h5ad</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58347</v>
+        <v>33538</v>
       </c>
       <c r="C26" t="n">
-        <v>98437</v>
+        <v>21193</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1441579991951585</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TianKampmann2019_day7neuron.h5ad</t>
+          <t>TianKampmann2021_CRISPRi.h5ad</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33752</v>
+        <v>33538</v>
       </c>
       <c r="C27" t="n">
-        <v>182790</v>
+        <v>32300</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.269514954648912</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TianKampmann2019_iPSC.h5ad</t>
+          <t>WeinrebKlein2020.h5ad</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33752</v>
+        <v>25289</v>
       </c>
       <c r="C28" t="n">
-        <v>275708</v>
+        <v>65075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2128301309421659</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TianKampmann2021_CRISPRa.h5ad</t>
+          <t>XieHon2017.h5ad</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33538</v>
+        <v>26539</v>
       </c>
       <c r="C29" t="n">
-        <v>21193</v>
+        <v>13283</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1092966264113784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TianKampmann2021_CRISPRi.h5ad</t>
+          <t>ZhaoSims2021.h5ad</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33538</v>
+        <v>60725</v>
       </c>
       <c r="C30" t="n">
-        <v>32300</v>
+        <v>165748</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>WeinrebKlein2020.h5ad</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>25289</v>
-      </c>
-      <c r="C31" t="n">
-        <v>65075</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>XieHon2017.h5ad</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>26539</v>
-      </c>
-      <c r="C32" t="n">
-        <v>13283</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ZhaoSims2021.h5ad</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>60725</v>
-      </c>
-      <c r="C33" t="n">
-        <v>165748</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0.5465821735560894</v>
       </c>
     </row>
   </sheetData>
